--- a/doc/轮胎宝宝微信开发计划表.xlsx
+++ b/doc/轮胎宝宝微信开发计划表.xlsx
@@ -14,33 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
   <si>
     <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,7 +25,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>后台、微信web、接口框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzq任务是熟悉框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因、备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按轮胎宝宝的需求，已完成，后面改成3w联盟，需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面ui设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端html静态页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制做微信效果图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑昀 13号后才能安排时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面没有效果图，暂时模仿其他的
+软件效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑昀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦杰生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田恭铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互所有流程，原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求改版：轮胎宝宝改成3w联盟，嵌入商场、一元购模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面UI完成后，再按效果实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计\需求调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台数据的基础，考虑到平台扩展性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢迪</t>
+  </si>
+  <si>
+    <t>卢迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信前端功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示头像、昵称和会员等级等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户账号可用余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的推荐</t>
+  </si>
+  <si>
+    <t>互助基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定及删除银行卡、列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍一拍</t>
+  </si>
+  <si>
+    <t>扫码付款</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>已领取任务</t>
+  </si>
+  <si>
+    <t>已发布任务</t>
+  </si>
+  <si>
+    <t>转到账号</t>
+  </si>
+  <si>
+    <t>转到银行卡</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>工期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld、zzq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,23 +258,293 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台、微信web、接口框架搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ld、zzq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzq任务是熟悉框架</t>
+    <r>
+      <t>健康互助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">汽车互助
+创业互助
+法律援助
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜一搜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转给朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商城，有一元购功能（买源码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费收费</t>
+  </si>
+  <si>
+    <t>产品管理</t>
+  </si>
+  <si>
+    <t>产品类型</t>
+  </si>
+  <si>
+    <t>账单收入记录</t>
+  </si>
+  <si>
+    <t>店铺设置</t>
+  </si>
+  <si>
+    <t>用户订单</t>
+  </si>
+  <si>
+    <t>添加店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家后台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互助基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员基金查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金互助申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐的注册人数、列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加vip会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +569,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -108,7 +577,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -117,25 +616,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -176,50 +658,83 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,170 +1031,1394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="40.125" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="49.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="54.75" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="42.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5">
+        <v>42479</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="54.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42485</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42488</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="54" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42479</v>
-      </c>
-      <c r="E2" s="11">
-        <v>42116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5">
-      <c r="A3" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11">
-        <v>42485</v>
-      </c>
-      <c r="E3" s="11">
-        <v>42488</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" ht="23.25" customHeight="1"/>
-    <row r="18" spans="1:2" ht="23.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="24.75" customHeight="1">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="19.5" customHeight="1">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="37.5" customHeight="1">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="42" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>42493</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42493</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42494</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42493</v>
+      </c>
+      <c r="F10" s="17">
+        <v>42495</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>42496</v>
+      </c>
+      <c r="F11" s="17">
+        <v>42496</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>42496</v>
+      </c>
+      <c r="F12" s="17">
+        <v>42496</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42497</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42500</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="66.75" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42504</v>
+      </c>
+      <c r="F18" s="5">
+        <v>42504</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5">
+        <v>42506</v>
+      </c>
+      <c r="F19" s="5">
+        <v>42506</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="5">
+        <v>42507</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42507</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5">
+        <v>42502</v>
+      </c>
+      <c r="F24" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42507</v>
+      </c>
+      <c r="F25" s="5">
+        <v>42509</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5">
+        <v>42504</v>
+      </c>
+      <c r="F26" s="5">
+        <v>42506</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F34" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A39" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A40" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A41" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A44" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A49" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A52" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A54" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F55" s="5">
+        <v>42501</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="5">
+        <v>42495</v>
+      </c>
+      <c r="F56" s="5">
+        <v>42495</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="5">
+        <v>42499</v>
+      </c>
+      <c r="F57" s="5">
+        <v>42499</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="5">
+        <v>42500</v>
+      </c>
+      <c r="F58" s="5">
+        <v>42500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A59" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="5">
+        <v>42497</v>
+      </c>
+      <c r="F59" s="5">
+        <v>42497</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="5">
+        <v>42496</v>
+      </c>
+      <c r="F60" s="5">
+        <v>42496</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A61" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A62" s="18"/>
+      <c r="B62" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A64" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A65" s="18"/>
+      <c r="B65" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A67" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A69" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A23:A24"/>
+  <mergeCells count="30">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/轮胎宝宝微信开发计划表.xlsx
+++ b/doc/轮胎宝宝微信开发计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求改版：轮胎宝宝改成3w联盟，嵌入商场、一元购模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平面UI完成后，再按效果实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
   </si>
   <si>
     <t>卢迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信前端功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,6 +537,18 @@
   </si>
   <si>
     <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按轮胎宝宝的需求，已完成，后面改成3w联盟，需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求改版：轮胎宝宝改成3w联盟，嵌入商场、一元购模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信前端功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +718,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -722,9 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1053,27 +1057,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1083,15 +1087,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>42479</v>
@@ -1100,7 +1104,7 @@
         <v>42116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="6">
@@ -1111,15 +1115,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <v>42485</v>
@@ -1128,7 +1132,7 @@
         <v>42488</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>3</v>
@@ -1137,28 +1141,28 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="A4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1177,10 +1181,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1195,16 +1199,16 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1225,15 +1229,15 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="5">
         <v>42493</v>
@@ -1242,7 +1246,7 @@
         <v>42494</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1250,28 +1254,28 @@
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+        <v>130</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>28</v>
+      <c r="A10" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="5">
         <v>42493</v>
@@ -1280,19 +1284,19 @@
         <v>42495</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3">
         <v>0.5</v>
@@ -1304,19 +1308,19 @@
         <v>42496</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3">
         <v>0.5</v>
@@ -1328,22 +1332,22 @@
         <v>42496</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="5">
         <v>42497</v>
@@ -1352,19 +1356,19 @@
         <v>42500</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1375,12 +1379,12 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1391,25 +1395,25 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3"/>
@@ -1421,15 +1425,15 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>39</v>
+      <c r="A18" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="5">
         <v>42504</v>
@@ -1438,20 +1442,20 @@
         <v>42504</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="5">
         <v>42506</v>
@@ -1460,20 +1464,20 @@
         <v>42506</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" s="5">
         <v>42507</v>
@@ -1482,18 +1486,18 @@
         <v>42507</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>44</v>
+      <c r="A21" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="3"/>
@@ -1505,9 +1509,9 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="3"/>
@@ -1520,10 +1524,10 @@
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="3"/>
@@ -1535,15 +1539,15 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>65</v>
+      <c r="A24" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5">
         <v>42502</v>
@@ -1552,20 +1556,20 @@
         <v>42503</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="5">
         <v>42507</v>
@@ -1574,20 +1578,20 @@
         <v>42509</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5">
         <v>42504</v>
@@ -1596,18 +1600,18 @@
         <v>42506</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="18" t="s">
-        <v>68</v>
+      <c r="A27" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1619,9 +1623,9 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1633,9 +1637,9 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1647,11 +1651,11 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>71</v>
+      <c r="A30" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1663,9 +1667,9 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1677,9 +1681,9 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1691,9 +1695,9 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1705,15 +1709,15 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="18" t="s">
-        <v>74</v>
+      <c r="A34" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="5">
         <v>42501</v>
@@ -1727,9 +1731,9 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1741,9 +1745,9 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1755,9 +1759,9 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1769,9 +1773,9 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1783,12 +1787,12 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="21"/>
+      <c r="A39" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1800,7 +1804,7 @@
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -1813,15 +1817,15 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="18" t="s">
-        <v>89</v>
+      <c r="A41" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1831,26 +1835,26 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="18"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1860,15 +1864,15 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="18" t="s">
-        <v>92</v>
+      <c r="A44" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1878,13 +1882,13 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1894,13 +1898,13 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="18"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1910,15 +1914,15 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="18" t="s">
-        <v>94</v>
+      <c r="A47" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1928,13 +1932,13 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1944,15 +1948,15 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>95</v>
+      <c r="A49" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1962,13 +1966,13 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="18"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1978,13 +1982,13 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="18"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1994,11 +1998,11 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="18" t="s">
-        <v>97</v>
+      <c r="A52" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2010,13 +2014,13 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2027,7 +2031,7 @@
     </row>
     <row r="54" spans="1:10" ht="21.95" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -2040,15 +2044,15 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="18" t="s">
-        <v>89</v>
+      <c r="A55" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E55" s="5">
         <v>42501</v>
@@ -2057,20 +2061,20 @@
         <v>42501</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="18"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E56" s="5">
         <v>42495</v>
@@ -2079,20 +2083,20 @@
         <v>42495</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E57" s="5">
         <v>42499</v>
@@ -2101,20 +2105,20 @@
         <v>42499</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="18"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E58" s="5">
         <v>42500</v>
@@ -2123,22 +2127,22 @@
         <v>42500</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>101</v>
+      <c r="A59" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" s="5">
         <v>42497</v>
@@ -2147,20 +2151,20 @@
         <v>42497</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="18"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="5">
         <v>42496</v>
@@ -2169,22 +2173,22 @@
         <v>42496</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>64</v>
+      <c r="A61" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2194,13 +2198,13 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="18"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2211,14 +2215,14 @@
     </row>
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2228,15 +2232,15 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>106</v>
+      <c r="A64" s="25" t="s">
+        <v>104</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2246,13 +2250,13 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="18"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2262,13 +2266,13 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="18"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2278,15 +2282,15 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>110</v>
+      <c r="A67" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2296,13 +2300,13 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="18"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2312,15 +2316,15 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="18" t="s">
-        <v>112</v>
+      <c r="A69" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2330,9 +2334,9 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="18"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2344,9 +2348,9 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="18"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2358,9 +2362,9 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="18"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2372,13 +2376,13 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="18"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2389,20 +2393,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A10:A17"/>
@@ -2419,6 +2409,20 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/轮胎宝宝微信开发计划表.xlsx
+++ b/doc/轮胎宝宝微信开发计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,83 +436,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互助基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员基金查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金互助申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐的注册人数、列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加vip会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按轮胎宝宝的需求，已完成，后面改成3w联盟，需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求改版：轮胎宝宝改成3w联盟，嵌入商场、一元购模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信前端功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已完成订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>互助基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员基金查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金互助申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账务统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱子秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐的注册人数、列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加vip会员</t>
+    <t>保险公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,35 +564,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱子秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按轮胎宝宝的需求，已完成，后面改成3w联盟，需要调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求改版：轮胎宝宝改成3w联盟，嵌入商场、一元购模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信前端功能</t>
+    <t>查看，搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增查改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +738,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -726,6 +746,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,9 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1057,10 +1077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1087,10 +1107,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1115,10 +1135,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1141,28 +1161,28 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1181,10 +1201,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1205,10 +1225,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1229,10 +1249,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1254,28 +1274,28 @@
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" ht="43.5" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="5">
         <v>42493</v>
@@ -1284,14 +1304,14 @@
         <v>42495</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1308,14 +1328,14 @@
         <v>42496</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1332,22 +1352,22 @@
         <v>42496</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="5">
         <v>42497</v>
@@ -1356,14 +1376,14 @@
         <v>42500</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1399,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1395,7 +1415,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1404,14 +1424,14 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1445,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1433,7 +1453,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="5">
         <v>42504</v>
@@ -1442,20 +1462,20 @@
         <v>42504</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="5">
         <v>42506</v>
@@ -1464,20 +1484,20 @@
         <v>42506</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="5">
         <v>42507</v>
@@ -1486,14 +1506,14 @@
         <v>42507</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1509,7 +1529,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
@@ -1539,7 +1559,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1563,13 +1583,13 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="5">
         <v>42507</v>
@@ -1585,7 +1605,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="8" t="s">
         <v>65</v>
       </c>
@@ -1607,7 +1627,7 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1623,7 +1643,7 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -1637,7 +1657,7 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1671,7 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1667,7 +1687,7 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -1681,7 +1701,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="25"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
@@ -1695,7 +1715,7 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="8" t="s">
         <v>49</v>
       </c>
@@ -1709,15 +1729,15 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="5">
         <v>42501</v>
@@ -1731,7 +1751,7 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
@@ -1745,7 +1765,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="25"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1779,7 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="25"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="8" t="s">
         <v>51</v>
       </c>
@@ -1773,7 +1793,7 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="25"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="8" t="s">
         <v>52</v>
       </c>
@@ -1787,10 +1807,10 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
@@ -1817,7 +1837,7 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1825,7 +1845,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1835,26 +1855,26 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="25"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="25"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1864,7 +1884,7 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -1882,7 +1902,7 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="25"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
@@ -1898,7 +1918,7 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="25"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="8" t="s">
         <v>79</v>
       </c>
@@ -1914,7 +1934,7 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -1922,7 +1942,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1932,13 +1952,13 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="25"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1948,7 +1968,7 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -1956,7 +1976,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1966,13 +1986,13 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="25"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1982,9 +2002,9 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="25"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
@@ -1998,7 +2018,7 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2014,13 +2034,13 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2044,15 +2064,15 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="5">
         <v>42501</v>
@@ -2068,13 +2088,13 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="25"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="5">
         <v>42495</v>
@@ -2090,13 +2110,13 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="25"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="5">
         <v>42499</v>
@@ -2112,13 +2132,13 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="25"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="5">
         <v>42500</v>
@@ -2134,7 +2154,7 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -2142,7 +2162,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="5">
         <v>42497</v>
@@ -2158,13 +2178,13 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="25"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="5">
         <v>42496</v>
@@ -2180,49 +2200,63 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E61" s="5">
+        <v>42504</v>
+      </c>
+      <c r="F61" s="5">
+        <v>42504</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="25"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="E62" s="5">
+        <v>42503</v>
+      </c>
+      <c r="F62" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A63" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="A63" s="18"/>
       <c r="B63" s="8" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2232,65 +2266,89 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="25" t="s">
-        <v>104</v>
+      <c r="A64" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E64" s="5">
+        <v>42500</v>
+      </c>
+      <c r="F64" s="5">
+        <v>42500</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="25"/>
+      <c r="A65" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="B65" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E65" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F65" s="5">
+        <v>42501</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="25"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="E66" s="5">
+        <v>42502</v>
+      </c>
+      <c r="F66" s="5">
+        <v>42502</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="A67" s="18"/>
       <c r="B67" s="8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2300,13 +2358,15 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="25"/>
+      <c r="A68" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="B68" s="8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2316,15 +2376,13 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="25" t="s">
-        <v>110</v>
-      </c>
+      <c r="A69" s="18"/>
       <c r="B69" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2334,12 +2392,16 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="25"/>
+      <c r="A70" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -2348,9 +2410,9 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="25"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2362,9 +2424,9 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="25"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2376,14 +2438,12 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="25"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2391,24 +2451,24 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
+    <row r="74" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A1:B1"/>
@@ -2423,6 +2483,22 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/轮胎宝宝微信开发计划表.xlsx
+++ b/doc/轮胎宝宝微信开发计划表.xlsx
@@ -738,7 +738,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,9 +746,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,6 +757,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1077,10 +1077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1107,10 +1107,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1135,10 +1135,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="54.75" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1165,24 +1165,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1201,10 +1201,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1225,10 +1225,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1249,10 +1249,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1276,18 +1276,18 @@
       <c r="A9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1311,7 +1311,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1469,7 +1469,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="8" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1529,7 +1529,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1583,7 +1583,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="8" t="s">
         <v>65</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1643,7 +1643,7 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1687,7 +1687,7 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="8" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1751,7 +1751,7 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
         <v>73</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8" t="s">
         <v>51</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="8" t="s">
         <v>52</v>
       </c>
@@ -1807,10 +1807,10 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1855,7 +1855,7 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="8" t="s">
         <v>89</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="18"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="8" t="s">
         <v>76</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -1902,7 +1902,7 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="s">
         <v>91</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="18"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="8" t="s">
         <v>79</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -1952,7 +1952,7 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="8" t="s">
         <v>81</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -1986,7 +1986,7 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="18"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
         <v>82</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="18"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="8" t="s">
         <v>125</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -2034,7 +2034,7 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="18"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -2088,7 +2088,7 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="18"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>89</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="18"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>98</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="18"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>84</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -2178,7 +2178,7 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="18"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
         <v>100</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2226,7 +2226,7 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="18"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>132</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A63" s="18"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>131</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -2318,7 +2318,7 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="18"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
         <v>105</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="18"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>106</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -2376,7 +2376,7 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="18"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
         <v>108</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -2410,7 +2410,7 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="18"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="8" t="s">
         <v>111</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="18"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>112</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="18"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>113</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A74" s="18"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>114</v>
       </c>
@@ -2469,20 +2469,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A74"/>
     <mergeCell ref="A10:A17"/>
@@ -2499,6 +2485,20 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
